--- a/output all new.xlsx
+++ b/output all new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="9780"/>
+    <workbookView xWindow="3744" yWindow="0" windowWidth="22104" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>0_8</t>
   </si>
   <si>
-    <t>0_9</t>
-  </si>
-  <si>
     <t>0_10</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>1_20</t>
+  </si>
+  <si>
+    <t>1_6</t>
   </si>
 </sst>
 </file>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,42 +594,42 @@
         <v>3.4</v>
       </c>
       <c r="F2">
-        <v>0.238563268274433</v>
+        <v>0.29146429528033813</v>
       </c>
       <c r="G2">
-        <v>537.32299999999998</v>
+        <v>536.28800000000001</v>
       </c>
       <c r="H2">
-        <v>9.8819605640955266E-2</v>
+        <v>0.14063059156796551</v>
       </c>
       <c r="I2">
-        <v>0.13974366263347771</v>
+        <v>0.15083370371237251</v>
       </c>
       <c r="J2">
-        <v>0.1694207513506423</v>
+        <v>0.21616835583742211</v>
       </c>
       <c r="K2">
-        <v>1.4081112636591351</v>
+        <v>1.348320822218517</v>
       </c>
       <c r="L2">
-        <v>-4.5953910020249849E-5</v>
+        <v>-6.1756884810103708E-5</v>
       </c>
       <c r="M2">
-        <v>39.997000000000071</v>
+        <v>37.933999999999969</v>
       </c>
       <c r="N2">
-        <v>0.2212294750869131</v>
+        <v>0.27264031041960912</v>
       </c>
       <c r="O2">
-        <v>-1.2579129769485649E-3</v>
+        <v>-1.3668421921673949E-3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -638,277 +638,277 @@
         <v>0.8</v>
       </c>
       <c r="E3">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="F3">
-        <v>0.26306523255101583</v>
+        <v>0.27967692957582613</v>
       </c>
       <c r="G3">
-        <v>536.97799999999995</v>
+        <v>533.18100000000004</v>
       </c>
       <c r="H3">
-        <v>8.557614487033649E-2</v>
+        <v>0.17111333575056881</v>
       </c>
       <c r="I3">
-        <v>0.17748908768067931</v>
+        <v>0.1085635938252574</v>
       </c>
       <c r="J3">
-        <v>0.19212993138382611</v>
+        <v>0.2128649227771589</v>
       </c>
       <c r="K3">
-        <v>1.369204843078194</v>
+        <v>1.313870439182742</v>
       </c>
       <c r="L3">
-        <v>-5.3257624708982219E-5</v>
+        <v>-6.5692963182684998E-5</v>
       </c>
       <c r="M3">
-        <v>35.239000000000033</v>
+        <v>34.533000000000023</v>
       </c>
       <c r="N3">
-        <v>0.24524160268228851</v>
+        <v>0.26297255372502187</v>
       </c>
       <c r="O3">
-        <v>-2.4071045751501399E-3</v>
+        <v>-1.290203487701021E-3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B4">
+        <v>1.4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1.4</v>
       </c>
       <c r="E4">
         <v>3.1</v>
       </c>
       <c r="F4">
-        <v>0.260458131475024</v>
+        <v>0.2218853732897545</v>
       </c>
       <c r="G4">
-        <v>532.49</v>
+        <v>539.73599999999999</v>
       </c>
       <c r="H4">
-        <v>9.6496442064459648E-2</v>
+        <v>0.18583766815541169</v>
       </c>
       <c r="I4">
-        <v>0.16396168941056441</v>
+        <v>3.60477051343428E-2</v>
       </c>
       <c r="J4">
-        <v>0.1771022583459638</v>
+        <v>0.18480492093122169</v>
       </c>
       <c r="K4">
-        <v>1.47066521854412</v>
+        <v>1.200646455579681</v>
       </c>
       <c r="L4">
-        <v>-8.7596349745713503E-5</v>
+        <v>-1.619261156395198E-5</v>
       </c>
       <c r="M4">
-        <v>32.474000000000053</v>
+        <v>46.75</v>
       </c>
       <c r="N4">
-        <v>0.23955794807835029</v>
+        <v>0.2123274362201383</v>
       </c>
       <c r="O4">
-        <v>-2.0861355829620599E-3</v>
+        <v>-3.5612129757011849E-4</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2.1999999999999988</v>
       </c>
       <c r="F5">
-        <v>0.26660736676243513</v>
+        <v>0.21743014347227149</v>
       </c>
       <c r="G5">
-        <v>529.37800000000004</v>
+        <v>535.94299999999998</v>
       </c>
       <c r="H5">
-        <v>9.8646524832187971E-2</v>
+        <v>0.1468177249131897</v>
       </c>
       <c r="I5">
-        <v>0.1679608419302471</v>
+        <v>7.0612418559081819E-2</v>
       </c>
       <c r="J5">
-        <v>0.18776960750223609</v>
+        <v>0.17084636614128959</v>
       </c>
       <c r="K5">
-        <v>1.4198643236726161</v>
+        <v>1.272664724355081</v>
       </c>
       <c r="L5">
-        <v>-1.007243508412296E-4</v>
+        <v>-3.5945952187050042E-5</v>
       </c>
       <c r="M5">
-        <v>30.095000000000031</v>
+        <v>38.955000000000041</v>
       </c>
       <c r="N5">
-        <v>0.2468282332443277</v>
+        <v>0.20572628303928589</v>
       </c>
       <c r="O5">
-        <v>-2.249602218741974E-3</v>
+        <v>-7.2356491730263327E-4</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>3.3</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="F6">
-        <v>0.21268460004978479</v>
+        <v>0.25362038558954347</v>
       </c>
       <c r="G6">
-        <v>535.25300000000004</v>
+        <v>536.28800000000001</v>
       </c>
       <c r="H6">
-        <v>0.10959801042262821</v>
+        <v>0.19611821864391071</v>
       </c>
       <c r="I6">
-        <v>0.1030865896271566</v>
+        <v>5.7502166945632732E-2</v>
       </c>
       <c r="J6">
-        <v>0.15336081694837589</v>
+        <v>0.20319437816916161</v>
       </c>
       <c r="K6">
-        <v>1.3868249027479971</v>
+        <v>1.248166351228486</v>
       </c>
       <c r="L6">
-        <v>-4.797760248275734E-5</v>
+        <v>-4.1663896955908823E-5</v>
       </c>
       <c r="M6">
-        <v>36.251999999999953</v>
+        <v>37.586999999999989</v>
       </c>
       <c r="N6">
-        <v>0.19785182206595411</v>
+        <v>0.24092770601720831</v>
       </c>
       <c r="O6">
-        <v>-1.279783691997114E-3</v>
+        <v>-7.9957483441115925E-4</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E7">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="F7">
-        <v>0.19402690854501731</v>
+        <v>0.26664379038059688</v>
       </c>
       <c r="G7">
-        <v>534.21699999999998</v>
+        <v>532.83500000000004</v>
       </c>
       <c r="H7">
-        <v>0.1193489604275832</v>
+        <v>0.15750078972827641</v>
       </c>
       <c r="I7">
-        <v>7.4677948117434084E-2</v>
+        <v>0.1091430006523204</v>
       </c>
       <c r="J7">
-        <v>0.1430515500227576</v>
+        <v>0.2017954413335914</v>
       </c>
       <c r="K7">
-        <v>1.356342580797973</v>
+        <v>1.321356858303868</v>
       </c>
       <c r="L7">
-        <v>-3.8618206312406377E-5</v>
+        <v>-6.5198741030097807E-5</v>
       </c>
       <c r="M7">
-        <v>37.981999999999971</v>
+        <v>34.19500000000005</v>
       </c>
       <c r="N7">
-        <v>0.1812560196902657</v>
+        <v>0.25042859157132741</v>
       </c>
       <c r="O7">
-        <v>-9.1955410781435678E-4</v>
+        <v>-1.294090029312587E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
         <v>3.7</v>
       </c>
       <c r="F8">
-        <v>0.24579575422391539</v>
+        <v>0.29302732648871621</v>
       </c>
       <c r="G8">
-        <v>533.87199999999996</v>
+        <v>535.25300000000004</v>
       </c>
       <c r="H8">
-        <v>0.1237262076116319</v>
+        <v>0.1557481503928119</v>
       </c>
       <c r="I8">
-        <v>0.1220695466122835</v>
+        <v>0.13727917609590429</v>
       </c>
       <c r="J8">
-        <v>0.18184423320811099</v>
+        <v>0.2171730500239844</v>
       </c>
       <c r="K8">
-        <v>1.351682975520127</v>
+        <v>1.3492803386808561</v>
       </c>
       <c r="L8">
-        <v>-5.4968590774970752E-5</v>
+        <v>-6.8886674571272733E-5</v>
       </c>
       <c r="M8">
-        <v>34.891000000000084</v>
+        <v>36.563999999999957</v>
       </c>
       <c r="N8">
-        <v>0.2298053648407587</v>
+        <v>0.27406169631938809</v>
       </c>
       <c r="O8">
-        <v>-1.550028012676758E-3</v>
+        <v>-1.3871899869751451E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -917,92 +917,92 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="E9">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="F9">
-        <v>0.19972842113786621</v>
+        <v>0.25735102726623599</v>
       </c>
       <c r="G9">
-        <v>529.37800000000004</v>
+        <v>534.90800000000002</v>
       </c>
       <c r="H9">
-        <v>8.1684433200097717E-2</v>
+        <v>0.14272566992774791</v>
       </c>
       <c r="I9">
-        <v>0.1180439879377685</v>
+        <v>0.1146253573384881</v>
       </c>
       <c r="J9">
-        <v>0.14412890696540209</v>
+        <v>0.1954860552378074</v>
       </c>
       <c r="K9">
-        <v>1.3857624077161059</v>
+        <v>1.3164674429241019</v>
       </c>
       <c r="L9">
-        <v>-6.0343887323043683E-5</v>
+        <v>-5.2799298612820032E-5</v>
       </c>
       <c r="M9">
-        <v>31.824000000000069</v>
+        <v>36.927999999999997</v>
       </c>
       <c r="N9">
-        <v>0.1857828740885909</v>
+        <v>0.241880527737626</v>
       </c>
       <c r="O9">
-        <v>-1.488747902558371E-3</v>
+        <v>-1.1661358161327291E-3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="F10">
-        <v>0.27482172735988142</v>
+        <v>0.24030815968462599</v>
       </c>
       <c r="G10">
-        <v>532.14400000000001</v>
+        <v>546.61800000000005</v>
       </c>
       <c r="H10">
-        <v>0.1081718433545894</v>
+        <v>0.19385943586425131</v>
       </c>
       <c r="I10">
-        <v>0.16664988400529199</v>
+        <v>4.6448723820374772E-2</v>
       </c>
       <c r="J10">
-        <v>0.1919723841705796</v>
+        <v>0.20331589415318241</v>
       </c>
       <c r="K10">
-        <v>1.43156906941201</v>
+        <v>1.1819447795044149</v>
       </c>
       <c r="L10">
-        <v>-8.1978465617367301E-5</v>
+        <v>-4.5633653892081447E-5</v>
       </c>
       <c r="M10">
-        <v>32.831999999999987</v>
+        <v>32.320999999999913</v>
       </c>
       <c r="N10">
-        <v>0.25402321443826059</v>
+        <v>0.23084729131965739</v>
       </c>
       <c r="O10">
-        <v>-2.2363589141663272E-3</v>
+        <v>-7.2832752418314087E-4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -1011,40 +1011,40 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="F11">
-        <v>0.22453309903752999</v>
+        <v>0.27894806148134282</v>
       </c>
       <c r="G11">
-        <v>545.24300000000005</v>
+        <v>534.21699999999998</v>
       </c>
       <c r="H11">
-        <v>0.1031206061241368</v>
+        <v>0.20773536392390199</v>
       </c>
       <c r="I11">
-        <v>0.12141249291339321</v>
+        <v>7.1212697557440807E-2</v>
       </c>
       <c r="J11">
-        <v>0.17133445151196999</v>
+        <v>0.22354756838637499</v>
       </c>
       <c r="K11">
-        <v>1.3104959163559891</v>
+        <v>1.247824181201626</v>
       </c>
       <c r="L11">
-        <v>-8.6402944056438753E-5</v>
+        <v>-4.8487921148123753E-5</v>
       </c>
       <c r="M11">
-        <v>28.907999999999902</v>
+        <v>36.22199999999998</v>
       </c>
       <c r="N11">
-        <v>0.2111618163435301</v>
+        <v>0.26501916585428109</v>
       </c>
       <c r="O11">
-        <v>-1.443077373534285E-3</v>
+        <v>-9.7108362274069004E-4</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1052,145 +1052,145 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="E12">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="F12">
-        <v>0.24880029769343681</v>
+        <v>0.26223523587651298</v>
       </c>
       <c r="G12">
-        <v>529.72400000000005</v>
+        <v>539.39200000000005</v>
       </c>
       <c r="H12">
-        <v>9.462106274440131E-2</v>
+        <v>0.13072797025723909</v>
       </c>
       <c r="I12">
-        <v>0.15417923494903549</v>
+        <v>0.13150726561927389</v>
       </c>
       <c r="J12">
-        <v>0.17618520728092421</v>
+        <v>0.20084285864943349</v>
       </c>
       <c r="K12">
-        <v>1.4121520275917889</v>
+        <v>1.3056736875780011</v>
       </c>
       <c r="L12">
-        <v>-7.7249969612807652E-5</v>
+        <v>-3.7496260557527351E-5</v>
       </c>
       <c r="M12">
-        <v>31.130999999999968</v>
+        <v>40.33400000000006</v>
       </c>
       <c r="N12">
-        <v>0.23060326040029441</v>
+        <v>0.24687685721110439</v>
       </c>
       <c r="O12">
-        <v>-2.1179759416187151E-3</v>
+        <v>-1.172226063057035E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="F13">
-        <v>0.2003354252976523</v>
+        <v>0.24181978884148511</v>
       </c>
       <c r="G13">
-        <v>533.52599999999995</v>
+        <v>534.21699999999998</v>
       </c>
       <c r="H13">
-        <v>0.1436223071458666</v>
+        <v>0.1609139451498775</v>
       </c>
       <c r="I13">
-        <v>5.6713118151785667E-2</v>
+        <v>8.0905843691607582E-2</v>
       </c>
       <c r="J13">
-        <v>0.15523794037245919</v>
+        <v>0.18652920175461479</v>
       </c>
       <c r="K13">
-        <v>1.290505560799065</v>
+        <v>1.2964178614756889</v>
       </c>
       <c r="L13">
-        <v>-3.8232820790361841E-5</v>
+        <v>-3.6764547661745498E-5</v>
       </c>
       <c r="M13">
-        <v>36.942999999999977</v>
+        <v>40.355999999999987</v>
       </c>
       <c r="N13">
-        <v>0.18902314333748679</v>
+        <v>0.22799234368504609</v>
       </c>
       <c r="O13">
-        <v>-7.4879985506384012E-4</v>
+        <v>-8.6609325222529617E-4</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E14">
-        <v>3.100000000000001</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>0.22975631650953501</v>
+        <v>0.3034084466048147</v>
       </c>
       <c r="G14">
-        <v>531.10699999999997</v>
+        <v>533.52599999999995</v>
       </c>
       <c r="H14">
-        <v>9.2539948560655644E-2</v>
+        <v>0.17514796026294041</v>
       </c>
       <c r="I14">
-        <v>0.1372163679488794</v>
+        <v>0.12826048634187431</v>
       </c>
       <c r="J14">
-        <v>0.161887904834981</v>
+        <v>0.22891833388694249</v>
       </c>
       <c r="K14">
-        <v>1.4192308977235519</v>
+        <v>1.325400379484944</v>
       </c>
       <c r="L14">
-        <v>-6.9805850572139739E-5</v>
+        <v>-6.9364699769606066E-5</v>
       </c>
       <c r="M14">
-        <v>32.152999999999913</v>
+        <v>34.529000000000003</v>
       </c>
       <c r="N14">
-        <v>0.21273891869763961</v>
+        <v>0.28477833620431969</v>
       </c>
       <c r="O14">
-        <v>-1.8145121017255469E-3</v>
+        <v>-1.626756863521948E-3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>1.1000000000000001</v>
@@ -1199,280 +1199,280 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="E15">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="F15">
-        <v>0.19015179351932701</v>
+        <v>0.22907935249083089</v>
       </c>
       <c r="G15">
-        <v>529.37800000000004</v>
+        <v>534.21699999999998</v>
       </c>
       <c r="H15">
-        <v>8.8573954516438652E-2</v>
+        <v>0.1426276037363062</v>
       </c>
       <c r="I15">
-        <v>0.1015778390028884</v>
+        <v>8.6451748754524688E-2</v>
       </c>
       <c r="J15">
-        <v>0.14214232398170309</v>
+        <v>0.17513489535732579</v>
       </c>
       <c r="K15">
-        <v>1.337756328958037</v>
+        <v>1.308016612128855</v>
       </c>
       <c r="L15">
-        <v>-4.6617062905684423E-5</v>
+        <v>-3.3629767128147402E-5</v>
       </c>
       <c r="M15">
-        <v>32.16700000000003</v>
+        <v>41.382000000000062</v>
       </c>
       <c r="N15">
-        <v>0.17811639994605599</v>
+        <v>0.21558728292535409</v>
       </c>
       <c r="O15">
-        <v>-1.3719083140524169E-3</v>
+        <v>-7.9648242472578617E-4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="E16">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="F16">
-        <v>0.22519482885996581</v>
+        <v>0.19402690854501731</v>
       </c>
       <c r="G16">
-        <v>531.45299999999997</v>
+        <v>534.21699999999998</v>
       </c>
       <c r="H16">
-        <v>9.3433578814444085E-2</v>
+        <v>0.1193489604275832</v>
       </c>
       <c r="I16">
-        <v>0.13176125004552169</v>
+        <v>7.4677948117434084E-2</v>
       </c>
       <c r="J16">
-        <v>0.16357886552122741</v>
+        <v>0.1430515500227576</v>
       </c>
       <c r="K16">
-        <v>1.3766743530247949</v>
+        <v>1.356342580797973</v>
       </c>
       <c r="L16">
-        <v>-6.0348058679750917E-5</v>
+        <v>-3.8618206312406377E-5</v>
       </c>
       <c r="M16">
-        <v>32.839999999999918</v>
+        <v>37.981999999999971</v>
       </c>
       <c r="N16">
-        <v>0.20972102152516331</v>
+        <v>0.1812560196902657</v>
       </c>
       <c r="O16">
-        <v>-1.6835141072819419E-3</v>
+        <v>-9.1955410781435678E-4</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="E17">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F17">
-        <v>0.2075925889477209</v>
+        <v>0.17418665382838561</v>
       </c>
       <c r="G17">
-        <v>532.83500000000004</v>
+        <v>537.66800000000001</v>
       </c>
       <c r="H17">
-        <v>9.5140883851085642E-2</v>
+        <v>0.1161053744921266</v>
       </c>
       <c r="I17">
-        <v>0.1124517050966353</v>
+        <v>5.8081279336258951E-2</v>
       </c>
       <c r="J17">
-        <v>0.14949809216234511</v>
+        <v>0.1231514652196275</v>
       </c>
       <c r="K17">
-        <v>1.3885969108039791</v>
+        <v>1.4144099180447609</v>
       </c>
       <c r="L17">
-        <v>-5.3805652547424228E-5</v>
+        <v>-1.9979720515243781E-5</v>
       </c>
       <c r="M17">
-        <v>34.866999999999962</v>
+        <v>49.19399999999996</v>
       </c>
       <c r="N17">
-        <v>0.19301656329903771</v>
+        <v>0.16141308224526971</v>
       </c>
       <c r="O17">
-        <v>-1.211293532121597E-3</v>
+        <v>-4.4960706311474632E-4</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F18">
-        <v>0.1898981103168601</v>
+        <v>0.19159941292938801</v>
       </c>
       <c r="G18">
-        <v>534.56200000000001</v>
+        <v>538.01300000000003</v>
       </c>
       <c r="H18">
-        <v>0.1241444858534522</v>
+        <v>0.1118059013149604</v>
       </c>
       <c r="I18">
-        <v>6.5753624463407934E-2</v>
+        <v>7.9793511614427659E-2</v>
       </c>
       <c r="J18">
-        <v>0.14177034549788389</v>
+        <v>0.13762729072854479</v>
       </c>
       <c r="K18">
-        <v>1.3394769523200081</v>
+        <v>1.3921614813104</v>
       </c>
       <c r="L18">
-        <v>-3.960438791685916E-5</v>
+        <v>-3.5811240160992567E-5</v>
       </c>
       <c r="M18">
-        <v>37.601999999999983</v>
+        <v>42.030999999999949</v>
       </c>
       <c r="N18">
-        <v>0.17782206264345871</v>
+        <v>0.17808413690314609</v>
       </c>
       <c r="O18">
-        <v>-7.5568533377252229E-4</v>
+        <v>-7.2413783222909404E-4</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="E19">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="F19">
-        <v>0.17317015996894961</v>
+        <v>0.15963774827015451</v>
       </c>
       <c r="G19">
-        <v>538.01300000000003</v>
+        <v>541.11400000000003</v>
       </c>
       <c r="H19">
-        <v>0.10276051548824811</v>
+        <v>8.9058786938956455E-2</v>
       </c>
       <c r="I19">
-        <v>7.04096444807015E-2</v>
+        <v>7.0578961331198051E-2</v>
       </c>
       <c r="J19">
-        <v>0.12833023945134689</v>
+        <v>0.1169122844872751</v>
       </c>
       <c r="K19">
-        <v>1.3494104017050681</v>
+        <v>1.365448883068654</v>
       </c>
       <c r="L19">
-        <v>-3.5682544561534322E-5</v>
+        <v>-3.508486387629145E-5</v>
       </c>
       <c r="M19">
-        <v>37.586999999999989</v>
+        <v>37.560000000000059</v>
       </c>
       <c r="N19">
-        <v>0.16191097876692981</v>
+        <v>0.14891579888242079</v>
       </c>
       <c r="O19">
-        <v>-7.9210550398438719E-4</v>
+        <v>-7.6734022590127613E-4</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B20">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E20">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="F20">
-        <v>0.16044156522854841</v>
+        <v>0.186344129660138</v>
       </c>
       <c r="G20">
-        <v>538.01300000000003</v>
+        <v>536.63300000000004</v>
       </c>
       <c r="H20">
-        <v>9.4152101600538787E-2</v>
+        <v>0.1221249400197477</v>
       </c>
       <c r="I20">
-        <v>6.6289463628009596E-2</v>
+        <v>6.421918964039032E-2</v>
       </c>
       <c r="J20">
-        <v>0.1168114251541687</v>
+        <v>0.13854605582523319</v>
       </c>
       <c r="K20">
-        <v>1.373509183855913</v>
+        <v>1.344997723321687</v>
       </c>
       <c r="L20">
-        <v>-2.7928479010093981E-5</v>
+        <v>-3.5278978259883483E-5</v>
       </c>
       <c r="M20">
-        <v>41.352999999999952</v>
+        <v>39.644000000000013</v>
       </c>
       <c r="N20">
-        <v>0.14950637294169439</v>
+        <v>0.1743410960320039</v>
       </c>
       <c r="O20">
-        <v>-6.1128208339637519E-4</v>
+        <v>-7.0681611204601741E-4</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>1.4</v>
@@ -1481,233 +1481,233 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="E21">
-        <v>3.1</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="F21">
-        <v>0.30281573566547992</v>
+        <v>0.18264099224018959</v>
       </c>
       <c r="G21">
-        <v>529.72400000000005</v>
+        <v>536.63300000000004</v>
       </c>
       <c r="H21">
-        <v>9.53981750328875E-2</v>
+        <v>0.11820737805082621</v>
       </c>
       <c r="I21">
-        <v>0.2074175606325924</v>
+        <v>6.4433614189363317E-2</v>
       </c>
       <c r="J21">
-        <v>0.2047465582313564</v>
+        <v>0.13530828504881559</v>
       </c>
       <c r="K21">
-        <v>1.4789783930009159</v>
+        <v>1.3498138135022371</v>
       </c>
       <c r="L21">
-        <v>-1.185545316091989E-4</v>
+        <v>-3.431486305372149E-5</v>
       </c>
       <c r="M21">
-        <v>30.095000000000031</v>
+        <v>39.98599999999999</v>
       </c>
       <c r="N21">
-        <v>0.27823687060529678</v>
+        <v>0.17076080992602649</v>
       </c>
       <c r="O21">
-        <v>-2.9121833126380119E-3</v>
+        <v>-6.8899444251050237E-4</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B22">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E22">
         <v>2.2000000000000002</v>
       </c>
       <c r="F22">
-        <v>0.22813856211886671</v>
+        <v>0.17317015996894961</v>
       </c>
       <c r="G22">
-        <v>530.41499999999996</v>
+        <v>538.01300000000003</v>
       </c>
       <c r="H22">
-        <v>9.0650983380578809E-2</v>
+        <v>0.10276051548824811</v>
       </c>
       <c r="I22">
-        <v>0.1374875787382879</v>
+        <v>7.04096444807015E-2</v>
       </c>
       <c r="J22">
-        <v>0.1651839085535782</v>
+        <v>0.12833023945134689</v>
       </c>
       <c r="K22">
-        <v>1.381118561223952</v>
+        <v>1.3494104017050681</v>
       </c>
       <c r="L22">
-        <v>-6.3284553666010133E-5</v>
+        <v>-3.5682544561534322E-5</v>
       </c>
       <c r="M22">
-        <v>32.505999999999972</v>
+        <v>37.586999999999989</v>
       </c>
       <c r="N22">
-        <v>0.21235217258787389</v>
+        <v>0.16191097876692981</v>
       </c>
       <c r="O22">
-        <v>-1.7340337674195559E-3</v>
+        <v>-7.9210550398438719E-4</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B23">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="E23">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.23894624506951909</v>
+        <v>0.1898981103168601</v>
       </c>
       <c r="G23">
-        <v>530.41499999999996</v>
+        <v>534.56200000000001</v>
       </c>
       <c r="H23">
-        <v>9.4916890650802901E-2</v>
+        <v>0.1241444858534522</v>
       </c>
       <c r="I23">
-        <v>0.1440293544187162</v>
+        <v>6.5753624463407934E-2</v>
       </c>
       <c r="J23">
-        <v>0.17117271990467009</v>
+        <v>0.14177034549788389</v>
       </c>
       <c r="K23">
-        <v>1.3959364856888039</v>
+        <v>1.3394769523200081</v>
       </c>
       <c r="L23">
-        <v>-6.970376832134446E-5</v>
+        <v>-3.960438791685916E-5</v>
       </c>
       <c r="M23">
-        <v>31.470000000000031</v>
+        <v>37.601999999999983</v>
       </c>
       <c r="N23">
-        <v>0.22196492296395071</v>
+        <v>0.17782206264345871</v>
       </c>
       <c r="O23">
-        <v>-1.9443438321193639E-3</v>
+        <v>-7.5568533377252229E-4</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>2.399999999999999</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F24">
-        <v>0.18264099224018959</v>
+        <v>0.18273937122442241</v>
       </c>
       <c r="G24">
-        <v>536.63300000000004</v>
+        <v>540.77</v>
       </c>
       <c r="H24">
-        <v>0.11820737805082621</v>
+        <v>0.111036561652077</v>
       </c>
       <c r="I24">
-        <v>6.4433614189363317E-2</v>
+        <v>7.1702809572345386E-2</v>
       </c>
       <c r="J24">
-        <v>0.13530828504881559</v>
+        <v>0.13323366745396001</v>
       </c>
       <c r="K24">
-        <v>1.3498138135022371</v>
+        <v>1.371570525051931</v>
       </c>
       <c r="L24">
-        <v>-3.431486305372149E-5</v>
+        <v>-3.1348000444308942E-5</v>
       </c>
       <c r="M24">
-        <v>39.98599999999999</v>
+        <v>42.350000000000023</v>
       </c>
       <c r="N24">
-        <v>0.17076080992602649</v>
+        <v>0.17030237404538059</v>
       </c>
       <c r="O24">
-        <v>-6.8899444251050237E-4</v>
+        <v>-6.3555798751972596E-4</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B25">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="E25">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.16792174484846459</v>
+        <v>0.2003354252976523</v>
       </c>
       <c r="G25">
-        <v>538.01300000000003</v>
+        <v>533.52599999999995</v>
       </c>
       <c r="H25">
-        <v>9.3618520068875929E-2</v>
+        <v>0.1436223071458666</v>
       </c>
       <c r="I25">
-        <v>7.4303224779588686E-2</v>
+        <v>5.6713118151785667E-2</v>
       </c>
       <c r="J25">
-        <v>0.1221494953674826</v>
+        <v>0.15523794037245919</v>
       </c>
       <c r="K25">
-        <v>1.3747231975316621</v>
+        <v>1.290505560799065</v>
       </c>
       <c r="L25">
-        <v>-2.8143720847752401E-5</v>
+        <v>-3.8232820790361841E-5</v>
       </c>
       <c r="M25">
-        <v>41.034999999999968</v>
+        <v>36.942999999999977</v>
       </c>
       <c r="N25">
-        <v>0.1564760370621788</v>
+        <v>0.18902314333748679</v>
       </c>
       <c r="O25">
-        <v>-7.0817401007305871E-4</v>
+        <v>-7.4879985506384012E-4</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>1.5</v>
@@ -1754,54 +1754,54 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B27">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="F27">
-        <v>0.15963774827015451</v>
+        <v>0.16044156522854841</v>
       </c>
       <c r="G27">
-        <v>541.11400000000003</v>
+        <v>538.01300000000003</v>
       </c>
       <c r="H27">
-        <v>8.9058786938956455E-2</v>
+        <v>9.4152101600538787E-2</v>
       </c>
       <c r="I27">
-        <v>7.0578961331198051E-2</v>
+        <v>6.6289463628009596E-2</v>
       </c>
       <c r="J27">
-        <v>0.1169122844872751</v>
+        <v>0.1168114251541687</v>
       </c>
       <c r="K27">
-        <v>1.365448883068654</v>
+        <v>1.373509183855913</v>
       </c>
       <c r="L27">
-        <v>-3.508486387629145E-5</v>
+        <v>-2.7928479010093981E-5</v>
       </c>
       <c r="M27">
-        <v>37.560000000000059</v>
+        <v>41.352999999999952</v>
       </c>
       <c r="N27">
-        <v>0.14891579888242079</v>
+        <v>0.14950637294169439</v>
       </c>
       <c r="O27">
-        <v>-7.6734022590127613E-4</v>
+        <v>-6.1128208339637519E-4</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>1.8</v>
@@ -1810,45 +1810,45 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="E28">
-        <v>2.2999999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="F28">
-        <v>0.17418665382838561</v>
+        <v>0.16598496520221939</v>
       </c>
       <c r="G28">
-        <v>537.66800000000001</v>
+        <v>543.17999999999995</v>
       </c>
       <c r="H28">
-        <v>0.1161053744921266</v>
+        <v>0.1027683433526756</v>
       </c>
       <c r="I28">
-        <v>5.8081279336258951E-2</v>
+        <v>6.3216621849543825E-2</v>
       </c>
       <c r="J28">
-        <v>0.1231514652196275</v>
+        <v>0.1208966736592914</v>
       </c>
       <c r="K28">
-        <v>1.4144099180447609</v>
+        <v>1.3729489834434561</v>
       </c>
       <c r="L28">
-        <v>-1.9979720515243781E-5</v>
+        <v>-2.3971840834080091E-5</v>
       </c>
       <c r="M28">
-        <v>49.19399999999996</v>
+        <v>47.124000000000017</v>
       </c>
       <c r="N28">
-        <v>0.16141308224526971</v>
+        <v>0.1546708099155831</v>
       </c>
       <c r="O28">
-        <v>-4.4960706311474632E-4</v>
+        <v>-4.9280181228994067E-4</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>1.8</v>
@@ -1857,139 +1857,139 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="E29">
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="F29">
-        <v>0.18273937122442241</v>
+        <v>0.14975754057046151</v>
       </c>
       <c r="G29">
-        <v>540.77</v>
+        <v>543.524</v>
       </c>
       <c r="H29">
-        <v>0.111036561652077</v>
+        <v>9.5974311028479448E-2</v>
       </c>
       <c r="I29">
-        <v>7.1702809572345386E-2</v>
+        <v>5.3783229541982058E-2</v>
       </c>
       <c r="J29">
-        <v>0.13323366745396001</v>
+        <v>0.10970690320404509</v>
       </c>
       <c r="K29">
-        <v>1.371570525051931</v>
+        <v>1.365069436805866</v>
       </c>
       <c r="L29">
-        <v>-3.1348000444308942E-5</v>
+        <v>-2.6193489685929299E-5</v>
       </c>
       <c r="M29">
-        <v>42.350000000000023</v>
+        <v>45.735000000000007</v>
       </c>
       <c r="N29">
-        <v>0.17030237404538059</v>
+        <v>0.13969205422910869</v>
       </c>
       <c r="O29">
-        <v>-6.3555798751972596E-4</v>
+        <v>-4.386197641139221E-4</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="E30">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="F30">
-        <v>0.16598496520221939</v>
+        <v>0.24579575422391539</v>
       </c>
       <c r="G30">
-        <v>543.17999999999995</v>
+        <v>533.87199999999996</v>
       </c>
       <c r="H30">
-        <v>0.1027683433526756</v>
+        <v>0.1237262076116319</v>
       </c>
       <c r="I30">
-        <v>6.3216621849543825E-2</v>
+        <v>0.1220695466122835</v>
       </c>
       <c r="J30">
-        <v>0.1208966736592914</v>
+        <v>0.18184423320811099</v>
       </c>
       <c r="K30">
-        <v>1.3729489834434561</v>
+        <v>1.351682975520127</v>
       </c>
       <c r="L30">
-        <v>-2.3971840834080091E-5</v>
+        <v>-5.4968590774970752E-5</v>
       </c>
       <c r="M30">
-        <v>47.124000000000017</v>
+        <v>34.891000000000084</v>
       </c>
       <c r="N30">
-        <v>0.1546708099155831</v>
+        <v>0.2298053648407587</v>
       </c>
       <c r="O30">
-        <v>-4.9280181228994067E-4</v>
+        <v>-1.550028012676758E-3</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E31">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="F31">
-        <v>0.14975754057046151</v>
+        <v>0.21268460004978479</v>
       </c>
       <c r="G31">
-        <v>543.524</v>
+        <v>535.25300000000004</v>
       </c>
       <c r="H31">
-        <v>9.5974311028479448E-2</v>
+        <v>0.10959801042262821</v>
       </c>
       <c r="I31">
-        <v>5.3783229541982058E-2</v>
+        <v>0.1030865896271566</v>
       </c>
       <c r="J31">
-        <v>0.10970690320404509</v>
+        <v>0.15336081694837589</v>
       </c>
       <c r="K31">
-        <v>1.365069436805866</v>
+        <v>1.3868249027479971</v>
       </c>
       <c r="L31">
-        <v>-2.6193489685929299E-5</v>
+        <v>-4.797760248275734E-5</v>
       </c>
       <c r="M31">
-        <v>45.735000000000007</v>
+        <v>36.251999999999953</v>
       </c>
       <c r="N31">
-        <v>0.13969205422910869</v>
+        <v>0.19785182206595411</v>
       </c>
       <c r="O31">
-        <v>-4.386197641139221E-4</v>
+        <v>-1.279783691997114E-3</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1998,40 +1998,40 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="E32">
-        <v>2.2999999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="F32">
-        <v>0.19159941292938801</v>
+        <v>0.1428379602075075</v>
       </c>
       <c r="G32">
-        <v>538.01300000000003</v>
+        <v>546.61800000000005</v>
       </c>
       <c r="H32">
-        <v>0.1118059013149604</v>
+        <v>9.4147398939812291E-2</v>
       </c>
       <c r="I32">
-        <v>7.9793511614427659E-2</v>
+        <v>4.8690561267695179E-2</v>
       </c>
       <c r="J32">
-        <v>0.13762729072854479</v>
+        <v>0.10427913380468599</v>
       </c>
       <c r="K32">
-        <v>1.3921614813104</v>
+        <v>1.3697655033752181</v>
       </c>
       <c r="L32">
-        <v>-3.5811240160992567E-5</v>
+        <v>-2.3176770980185221E-5</v>
       </c>
       <c r="M32">
-        <v>42.030999999999949</v>
+        <v>50.485000000000007</v>
       </c>
       <c r="N32">
-        <v>0.17808413690314609</v>
+        <v>0.13313958229530751</v>
       </c>
       <c r="O32">
-        <v>-7.2413783222909404E-4</v>
+        <v>-3.7876587039982463E-4</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -2039,50 +2039,50 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="E33">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="F33">
-        <v>0.1428379602075075</v>
+        <v>0.16792174484846459</v>
       </c>
       <c r="G33">
-        <v>546.61800000000005</v>
+        <v>538.01300000000003</v>
       </c>
       <c r="H33">
-        <v>9.4147398939812291E-2</v>
+        <v>9.3618520068875929E-2</v>
       </c>
       <c r="I33">
-        <v>4.8690561267695179E-2</v>
+        <v>7.4303224779588686E-2</v>
       </c>
       <c r="J33">
-        <v>0.10427913380468599</v>
+        <v>0.1221494953674826</v>
       </c>
       <c r="K33">
-        <v>1.3697655033752181</v>
+        <v>1.3747231975316621</v>
       </c>
       <c r="L33">
-        <v>-2.3176770980185221E-5</v>
+        <v>-2.8143720847752401E-5</v>
       </c>
       <c r="M33">
-        <v>50.485000000000007</v>
+        <v>41.034999999999968</v>
       </c>
       <c r="N33">
-        <v>0.13313958229530751</v>
+        <v>0.1564760370621788</v>
       </c>
       <c r="O33">
-        <v>-3.7876587039982463E-4</v>
+        <v>-7.0817401007305871E-4</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O35">
+  <sortState ref="A2:O36">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
